--- a/eagle/inductor_test/assembly/InductorTesting.xlsx
+++ b/eagle/inductor_test/assembly/InductorTesting.xlsx
@@ -4,25 +4,27 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="14385" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="14385" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
-    <sheet name="1 Control" sheetId="2" r:id="rId2"/>
+    <sheet name="1 Control" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="1 Control (Sort)" sheetId="5" r:id="rId3"/>
-    <sheet name="2 New Config" sheetId="3" r:id="rId4"/>
+    <sheet name="2 New Config" sheetId="3" state="hidden" r:id="rId4"/>
     <sheet name="2 New Config (Sort)" sheetId="6" r:id="rId5"/>
-    <sheet name="3 MAX4238" sheetId="4" r:id="rId6"/>
+    <sheet name="3 MAX4238" sheetId="4" state="hidden" r:id="rId6"/>
     <sheet name="3 MAX4238 (Sort)" sheetId="8" r:id="rId7"/>
-    <sheet name="4 LMP2014" sheetId="7" r:id="rId8"/>
+    <sheet name="4 LMP2014" sheetId="7" state="hidden" r:id="rId8"/>
     <sheet name="4 LMP2014 (Sort)" sheetId="9" r:id="rId9"/>
+    <sheet name="5 OPA376" sheetId="10" state="hidden" r:id="rId10"/>
+    <sheet name="5 OPA376 (Sort)" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="150">
   <si>
     <t>Experiment</t>
   </si>
@@ -544,6 +546,9 @@
   </si>
   <si>
     <t>4 LMP2014: Old Configuration</t>
+  </si>
+  <si>
+    <t>5 OPA376 - Old Configuration</t>
   </si>
 </sst>
 </file>
@@ -919,7 +924,7 @@
   <dimension ref="A1:Z40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23:Y23"/>
+      <selection activeCell="H24" sqref="H24:Y24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1321,7 +1326,7 @@
         <v>R4 C1 R5</v>
       </c>
       <c r="H21" s="4" t="str">
-        <f t="shared" ref="H21:H40" si="2">CONCATENATE(C21," ",E21," ",F21," ",G21," ",C$10," ",C$11," ",C$12)</f>
+        <f t="shared" ref="H21:H22" si="2">CONCATENATE(C21," ",E21," ",F21," ",G21," ",C$10," ",C$11," ",C$12)</f>
         <v>U3 R6 R7 C2 C8 R14 R15 C11 U1 C3 C14 TP1 TP2 U2 C15 R20 R21 R4 C1 R5 J1 C18 C17 U6 L6 R24 R25 C16 C19 C20 R26 R31 LED1 TP10 TP12 R27 R28 R29 R30 C22 U7 TP16 L2 R2</v>
       </c>
       <c r="I21" s="4"/>
@@ -1342,7 +1347,7 @@
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
       <c r="Z21">
-        <f t="shared" ref="Z21:Z23" si="3">LEN(H21)-LEN(SUBSTITUTE(H21," ",""))+1</f>
+        <f t="shared" ref="Z21:Z24" si="3">LEN(H21)-LEN(SUBSTITUTE(H21," ",""))+1</f>
         <v>44</v>
       </c>
     </row>
@@ -1449,13 +1454,54 @@
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="str">
+        <f>B5</f>
+        <v>296-22191-1-ND</v>
+      </c>
+      <c r="E24" t="s">
+        <v>49</v>
+      </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
-        <v>U2 C15 R20 R21</v>
+        <v>U2 C15 R22 R23</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="1"/>
-        <v>R4 C1 R5</v>
+        <v>R3 R4 C1</v>
+      </c>
+      <c r="H24" s="4" t="str">
+        <f t="shared" ref="H24" si="5">CONCATENATE(C24," ",E24," ",F24," ",G24," ",C$10," ",C$11," ",C$12)</f>
+        <v>U3 R6 R7 C2 C8 R1 R14 R15 C11 U1 C3 C14 TP1 TP2 U2 C15 R22 R23 R3 R4 C1 J1 C18 C17 U6 L6 R24 R25 C16 C19 C20 R26 R31 LED1 TP10 TP12 R27 R28 R29 R30 C22 U7 TP16 L2 R2</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24">
+        <f t="shared" si="3"/>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
@@ -1619,11 +1665,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="H20:Y20"/>
     <mergeCell ref="H21:Y21"/>
     <mergeCell ref="H22:Y22"/>
     <mergeCell ref="H23:Y23"/>
+    <mergeCell ref="H24:Y24"/>
   </mergeCells>
   <conditionalFormatting sqref="J2:J7">
     <cfRule type="colorScale" priority="5">
@@ -1690,12 +1737,819 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q44" sqref="Q44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="str">
+        <f>LEFT(A3,1)</f>
+        <v>C</v>
+      </c>
+      <c r="C3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="str">
+        <f>LEFT(A4,1)</f>
+        <v>C</v>
+      </c>
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="str">
+        <f>LEFT(A5,1)</f>
+        <v>C</v>
+      </c>
+      <c r="C5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="str">
+        <f>LEFT(A6,1)</f>
+        <v>C</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="str">
+        <f>LEFT(A7,1)</f>
+        <v>C</v>
+      </c>
+      <c r="C7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" t="str">
+        <f>LEFT(A8,1)</f>
+        <v>C</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" t="str">
+        <f>LEFT(A9,1)</f>
+        <v>C</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" t="str">
+        <f>LEFT(A10,1)</f>
+        <v>C</v>
+      </c>
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="str">
+        <f>LEFT(A11,1)</f>
+        <v>C</v>
+      </c>
+      <c r="C11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" t="str">
+        <f>LEFT(A12,1)</f>
+        <v>C</v>
+      </c>
+      <c r="C12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="str">
+        <f>LEFT(A13,1)</f>
+        <v>C</v>
+      </c>
+      <c r="C13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="str">
+        <f>LEFT(A14,1)</f>
+        <v>C</v>
+      </c>
+      <c r="C14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" t="str">
+        <f>LEFT(A15,1)</f>
+        <v>C</v>
+      </c>
+      <c r="C15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" t="str">
+        <f>LEFT(A16,1)</f>
+        <v>L</v>
+      </c>
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" t="str">
+        <f>LEFT(A17,1)</f>
+        <v>L</v>
+      </c>
+      <c r="C17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" t="str">
+        <f>LEFT(A18,1)</f>
+        <v>R</v>
+      </c>
+      <c r="C18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" t="str">
+        <f>LEFT(A19,1)</f>
+        <v>R</v>
+      </c>
+      <c r="C19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" t="str">
+        <f>LEFT(A20,1)</f>
+        <v>R</v>
+      </c>
+      <c r="C20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" t="str">
+        <f>LEFT(A21,1)</f>
+        <v>R</v>
+      </c>
+      <c r="C21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" t="str">
+        <f>LEFT(A22,1)</f>
+        <v>R</v>
+      </c>
+      <c r="C22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" t="str">
+        <f>LEFT(A23,1)</f>
+        <v>R</v>
+      </c>
+      <c r="C23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" t="str">
+        <f>LEFT(A24,1)</f>
+        <v>R</v>
+      </c>
+      <c r="C24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="str">
+        <f>LEFT(A25,1)</f>
+        <v>R</v>
+      </c>
+      <c r="C25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" t="str">
+        <f>LEFT(A26,1)</f>
+        <v>R</v>
+      </c>
+      <c r="C26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" t="str">
+        <f>LEFT(A27,1)</f>
+        <v>R</v>
+      </c>
+      <c r="C27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" t="str">
+        <f>LEFT(A28,1)</f>
+        <v>R</v>
+      </c>
+      <c r="C28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" t="str">
+        <f>LEFT(A29,1)</f>
+        <v>R</v>
+      </c>
+      <c r="C29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" t="str">
+        <f>LEFT(A30,1)</f>
+        <v>R</v>
+      </c>
+      <c r="C30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" t="str">
+        <f>LEFT(A31,1)</f>
+        <v>R</v>
+      </c>
+      <c r="C31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" t="str">
+        <f>LEFT(A32,1)</f>
+        <v>R</v>
+      </c>
+      <c r="C32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" t="str">
+        <f>LEFT(A33,1)</f>
+        <v>R</v>
+      </c>
+      <c r="C33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" t="str">
+        <f>LEFT(A34,1)</f>
+        <v>R</v>
+      </c>
+      <c r="C34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" t="str">
+        <f>LEFT(A35,1)</f>
+        <v>R</v>
+      </c>
+      <c r="C35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" t="str">
+        <f>LEFT(A36,1)</f>
+        <v>U</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" t="str">
+        <f>LEFT(A37,1)</f>
+        <v>U</v>
+      </c>
+      <c r="C37" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" t="str">
+        <f>LEFT(A38,1)</f>
+        <v>U</v>
+      </c>
+      <c r="C38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" t="str">
+        <f>LEFT(A39,1)</f>
+        <v>U</v>
+      </c>
+      <c r="C39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" t="str">
+        <f>LEFT(A40,1)</f>
+        <v>U</v>
+      </c>
+      <c r="C40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A3:C40">
+    <sortCondition ref="B3:B40"/>
+    <sortCondition ref="C3:C40"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+      <selection activeCell="B4" sqref="B4:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2037,7 +2891,7 @@
         <v>82</v>
       </c>
       <c r="B3" t="str">
-        <f>LEFT(A3,1)</f>
+        <f t="shared" ref="B3:B40" si="0">LEFT(A3,1)</f>
         <v>C</v>
       </c>
       <c r="C3" t="s">
@@ -2049,7 +2903,7 @@
         <v>61</v>
       </c>
       <c r="B4" t="str">
-        <f>LEFT(A4,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C4" t="s">
@@ -2061,7 +2915,7 @@
         <v>67</v>
       </c>
       <c r="B5" t="str">
-        <f>LEFT(A5,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C5" t="s">
@@ -2073,7 +2927,7 @@
         <v>68</v>
       </c>
       <c r="B6" t="str">
-        <f>LEFT(A6,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C6" t="s">
@@ -2085,7 +2939,7 @@
         <v>70</v>
       </c>
       <c r="B7" t="str">
-        <f>LEFT(A7,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C7" t="s">
@@ -2097,7 +2951,7 @@
         <v>76</v>
       </c>
       <c r="B8" t="str">
-        <f>LEFT(A8,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C8" t="s">
@@ -2109,7 +2963,7 @@
         <v>83</v>
       </c>
       <c r="B9" t="str">
-        <f>LEFT(A9,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C9" t="s">
@@ -2121,7 +2975,7 @@
         <v>91</v>
       </c>
       <c r="B10" t="str">
-        <f>LEFT(A10,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C10" t="s">
@@ -2133,7 +2987,7 @@
         <v>77</v>
       </c>
       <c r="B11" t="str">
-        <f>LEFT(A11,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C11" t="s">
@@ -2145,7 +2999,7 @@
         <v>84</v>
       </c>
       <c r="B12" t="str">
-        <f>LEFT(A12,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C12" t="s">
@@ -2157,7 +3011,7 @@
         <v>60</v>
       </c>
       <c r="B13" t="str">
-        <f>LEFT(A13,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C13" t="s">
@@ -2169,7 +3023,7 @@
         <v>65</v>
       </c>
       <c r="B14" t="str">
-        <f>LEFT(A14,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C14" t="s">
@@ -2181,7 +3035,7 @@
         <v>75</v>
       </c>
       <c r="B15" t="str">
-        <f>LEFT(A15,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C15" t="s">
@@ -2193,7 +3047,7 @@
         <v>79</v>
       </c>
       <c r="B16" t="str">
-        <f>LEFT(A16,1)</f>
+        <f t="shared" si="0"/>
         <v>L</v>
       </c>
       <c r="C16" t="s">
@@ -2205,7 +3059,7 @@
         <v>93</v>
       </c>
       <c r="B17" t="str">
-        <f>LEFT(A17,1)</f>
+        <f t="shared" si="0"/>
         <v>L</v>
       </c>
       <c r="C17" t="s">
@@ -2217,7 +3071,7 @@
         <v>71</v>
       </c>
       <c r="B18" t="str">
-        <f>LEFT(A18,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C18" t="s">
@@ -2229,7 +3083,7 @@
         <v>73</v>
       </c>
       <c r="B19" t="str">
-        <f>LEFT(A19,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C19" t="s">
@@ -2241,7 +3095,7 @@
         <v>85</v>
       </c>
       <c r="B20" t="str">
-        <f>LEFT(A20,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C20" t="s">
@@ -2253,7 +3107,7 @@
         <v>89</v>
       </c>
       <c r="B21" t="str">
-        <f>LEFT(A21,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C21" t="s">
@@ -2265,7 +3119,7 @@
         <v>90</v>
       </c>
       <c r="B22" t="str">
-        <f>LEFT(A22,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C22" t="s">
@@ -2277,7 +3131,7 @@
         <v>87</v>
       </c>
       <c r="B23" t="str">
-        <f>LEFT(A23,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C23" t="s">
@@ -2289,7 +3143,7 @@
         <v>88</v>
       </c>
       <c r="B24" t="str">
-        <f>LEFT(A24,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C24" t="s">
@@ -2301,7 +3155,7 @@
         <v>72</v>
       </c>
       <c r="B25" t="str">
-        <f>LEFT(A25,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C25" t="s">
@@ -2313,7 +3167,7 @@
         <v>81</v>
       </c>
       <c r="B26" t="str">
-        <f>LEFT(A26,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C26" t="s">
@@ -2325,7 +3179,7 @@
         <v>62</v>
       </c>
       <c r="B27" t="str">
-        <f>LEFT(A27,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C27" t="s">
@@ -2337,7 +3191,7 @@
         <v>94</v>
       </c>
       <c r="B28" t="str">
-        <f>LEFT(A28,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C28" t="s">
@@ -2349,7 +3203,7 @@
         <v>86</v>
       </c>
       <c r="B29" t="str">
-        <f>LEFT(A29,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C29" t="s">
@@ -2361,7 +3215,7 @@
         <v>64</v>
       </c>
       <c r="B30" t="str">
-        <f>LEFT(A30,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C30" t="s">
@@ -2373,7 +3227,7 @@
         <v>58</v>
       </c>
       <c r="B31" t="str">
-        <f>LEFT(A31,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C31" t="s">
@@ -2385,7 +3239,7 @@
         <v>80</v>
       </c>
       <c r="B32" t="str">
-        <f>LEFT(A32,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C32" t="s">
@@ -2397,7 +3251,7 @@
         <v>74</v>
       </c>
       <c r="B33" t="str">
-        <f>LEFT(A33,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C33" t="s">
@@ -2409,7 +3263,7 @@
         <v>63</v>
       </c>
       <c r="B34" t="str">
-        <f>LEFT(A34,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C34" t="s">
@@ -2421,7 +3275,7 @@
         <v>59</v>
       </c>
       <c r="B35" t="str">
-        <f>LEFT(A35,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C35" t="s">
@@ -2433,7 +3287,7 @@
         <v>48</v>
       </c>
       <c r="B36" t="str">
-        <f>LEFT(A36,1)</f>
+        <f t="shared" si="0"/>
         <v>U</v>
       </c>
       <c r="C36" t="s">
@@ -2445,7 +3299,7 @@
         <v>66</v>
       </c>
       <c r="B37" t="str">
-        <f>LEFT(A37,1)</f>
+        <f t="shared" si="0"/>
         <v>U</v>
       </c>
       <c r="C37" t="s">
@@ -2457,7 +3311,7 @@
         <v>69</v>
       </c>
       <c r="B38" t="str">
-        <f>LEFT(A38,1)</f>
+        <f t="shared" si="0"/>
         <v>U</v>
       </c>
       <c r="C38" t="s">
@@ -2469,7 +3323,7 @@
         <v>78</v>
       </c>
       <c r="B39" t="str">
-        <f>LEFT(A39,1)</f>
+        <f t="shared" si="0"/>
         <v>U</v>
       </c>
       <c r="C39" t="s">
@@ -2481,7 +3335,7 @@
         <v>92</v>
       </c>
       <c r="B40" t="str">
-        <f>LEFT(A40,1)</f>
+        <f t="shared" si="0"/>
         <v>U</v>
       </c>
       <c r="C40" t="s">
@@ -2836,7 +3690,7 @@
         <v>60</v>
       </c>
       <c r="B3" t="str">
-        <f>LEFT(A3,1)</f>
+        <f t="shared" ref="B3:B39" si="0">LEFT(A3,1)</f>
         <v>C</v>
       </c>
       <c r="C3" t="s">
@@ -2848,7 +3702,7 @@
         <v>65</v>
       </c>
       <c r="B4" t="str">
-        <f>LEFT(A4,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C4" t="s">
@@ -2860,7 +3714,7 @@
         <v>82</v>
       </c>
       <c r="B5" t="str">
-        <f>LEFT(A5,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C5" t="s">
@@ -2872,7 +3726,7 @@
         <v>75</v>
       </c>
       <c r="B6" t="str">
-        <f>LEFT(A6,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C6" t="s">
@@ -2884,7 +3738,7 @@
         <v>67</v>
       </c>
       <c r="B7" t="str">
-        <f>LEFT(A7,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C7" t="s">
@@ -2896,7 +3750,7 @@
         <v>68</v>
       </c>
       <c r="B8" t="str">
-        <f>LEFT(A8,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C8" t="s">
@@ -2908,7 +3762,7 @@
         <v>70</v>
       </c>
       <c r="B9" t="str">
-        <f>LEFT(A9,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C9" t="s">
@@ -2920,7 +3774,7 @@
         <v>76</v>
       </c>
       <c r="B10" t="str">
-        <f>LEFT(A10,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C10" t="s">
@@ -2932,7 +3786,7 @@
         <v>83</v>
       </c>
       <c r="B11" t="str">
-        <f>LEFT(A11,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C11" t="s">
@@ -2944,7 +3798,7 @@
         <v>91</v>
       </c>
       <c r="B12" t="str">
-        <f>LEFT(A12,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C12" t="s">
@@ -2956,7 +3810,7 @@
         <v>77</v>
       </c>
       <c r="B13" t="str">
-        <f>LEFT(A13,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C13" t="s">
@@ -2968,7 +3822,7 @@
         <v>84</v>
       </c>
       <c r="B14" t="str">
-        <f>LEFT(A14,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C14" t="s">
@@ -2980,7 +3834,7 @@
         <v>61</v>
       </c>
       <c r="B15" t="str">
-        <f>LEFT(A15,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C15" t="s">
@@ -2992,7 +3846,7 @@
         <v>79</v>
       </c>
       <c r="B16" t="str">
-        <f>LEFT(A16,1)</f>
+        <f t="shared" si="0"/>
         <v>L</v>
       </c>
       <c r="C16" t="s">
@@ -3004,7 +3858,7 @@
         <v>93</v>
       </c>
       <c r="B17" t="str">
-        <f>LEFT(A17,1)</f>
+        <f t="shared" si="0"/>
         <v>L</v>
       </c>
       <c r="C17" t="s">
@@ -3016,7 +3870,7 @@
         <v>58</v>
       </c>
       <c r="B18" t="str">
-        <f>LEFT(A18,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C18" t="s">
@@ -3028,7 +3882,7 @@
         <v>74</v>
       </c>
       <c r="B19" t="str">
-        <f>LEFT(A19,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C19" t="s">
@@ -3040,7 +3894,7 @@
         <v>59</v>
       </c>
       <c r="B20" t="str">
-        <f>LEFT(A20,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C20" t="s">
@@ -3052,7 +3906,7 @@
         <v>122</v>
       </c>
       <c r="B21" t="str">
-        <f>LEFT(A21,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C21" t="s">
@@ -3064,7 +3918,7 @@
         <v>123</v>
       </c>
       <c r="B22" t="str">
-        <f>LEFT(A22,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C22" t="s">
@@ -3076,7 +3930,7 @@
         <v>85</v>
       </c>
       <c r="B23" t="str">
-        <f>LEFT(A23,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C23" t="s">
@@ -3088,7 +3942,7 @@
         <v>89</v>
       </c>
       <c r="B24" t="str">
-        <f>LEFT(A24,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C24" t="s">
@@ -3100,7 +3954,7 @@
         <v>90</v>
       </c>
       <c r="B25" t="str">
-        <f>LEFT(A25,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C25" t="s">
@@ -3112,7 +3966,7 @@
         <v>87</v>
       </c>
       <c r="B26" t="str">
-        <f>LEFT(A26,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C26" t="s">
@@ -3124,7 +3978,7 @@
         <v>88</v>
       </c>
       <c r="B27" t="str">
-        <f>LEFT(A27,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C27" t="s">
@@ -3136,7 +3990,7 @@
         <v>81</v>
       </c>
       <c r="B28" t="str">
-        <f>LEFT(A28,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C28" t="s">
@@ -3148,7 +4002,7 @@
         <v>124</v>
       </c>
       <c r="B29" t="str">
-        <f>LEFT(A29,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C29" t="s">
@@ -3160,7 +4014,7 @@
         <v>94</v>
       </c>
       <c r="B30" t="str">
-        <f>LEFT(A30,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C30" t="s">
@@ -3172,7 +4026,7 @@
         <v>86</v>
       </c>
       <c r="B31" t="str">
-        <f>LEFT(A31,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C31" t="s">
@@ -3184,7 +4038,7 @@
         <v>64</v>
       </c>
       <c r="B32" t="str">
-        <f>LEFT(A32,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C32" t="s">
@@ -3196,7 +4050,7 @@
         <v>80</v>
       </c>
       <c r="B33" t="str">
-        <f>LEFT(A33,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C33" t="s">
@@ -3208,7 +4062,7 @@
         <v>63</v>
       </c>
       <c r="B34" t="str">
-        <f>LEFT(A34,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C34" t="s">
@@ -3220,7 +4074,7 @@
         <v>48</v>
       </c>
       <c r="B35" t="str">
-        <f>LEFT(A35,1)</f>
+        <f t="shared" si="0"/>
         <v>U</v>
       </c>
       <c r="C35" t="s">
@@ -3232,7 +4086,7 @@
         <v>66</v>
       </c>
       <c r="B36" t="str">
-        <f>LEFT(A36,1)</f>
+        <f t="shared" si="0"/>
         <v>U</v>
       </c>
       <c r="C36" t="s">
@@ -3244,7 +4098,7 @@
         <v>69</v>
       </c>
       <c r="B37" t="str">
-        <f>LEFT(A37,1)</f>
+        <f t="shared" si="0"/>
         <v>U</v>
       </c>
       <c r="C37" t="s">
@@ -3256,7 +4110,7 @@
         <v>78</v>
       </c>
       <c r="B38" t="str">
-        <f>LEFT(A38,1)</f>
+        <f t="shared" si="0"/>
         <v>U</v>
       </c>
       <c r="C38" t="s">
@@ -3268,7 +4122,7 @@
         <v>92</v>
       </c>
       <c r="B39" t="str">
-        <f>LEFT(A39,1)</f>
+        <f t="shared" si="0"/>
         <v>U</v>
       </c>
       <c r="C39" t="s">
@@ -3631,7 +4485,7 @@
         <v>82</v>
       </c>
       <c r="B3" t="str">
-        <f>LEFT(A3,1)</f>
+        <f t="shared" ref="B3:B40" si="0">LEFT(A3,1)</f>
         <v>C</v>
       </c>
       <c r="C3" t="s">
@@ -3643,7 +4497,7 @@
         <v>132</v>
       </c>
       <c r="B4" t="str">
-        <f>LEFT(A4,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C4" t="s">
@@ -3655,7 +4509,7 @@
         <v>137</v>
       </c>
       <c r="B5" t="str">
-        <f>LEFT(A5,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C5" t="s">
@@ -3667,7 +4521,7 @@
         <v>68</v>
       </c>
       <c r="B6" t="str">
-        <f>LEFT(A6,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C6" t="s">
@@ -3679,7 +4533,7 @@
         <v>70</v>
       </c>
       <c r="B7" t="str">
-        <f>LEFT(A7,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C7" t="s">
@@ -3691,7 +4545,7 @@
         <v>76</v>
       </c>
       <c r="B8" t="str">
-        <f>LEFT(A8,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C8" t="s">
@@ -3703,7 +4557,7 @@
         <v>83</v>
       </c>
       <c r="B9" t="str">
-        <f>LEFT(A9,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C9" t="s">
@@ -3715,7 +4569,7 @@
         <v>91</v>
       </c>
       <c r="B10" t="str">
-        <f>LEFT(A10,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C10" t="s">
@@ -3727,7 +4581,7 @@
         <v>77</v>
       </c>
       <c r="B11" t="str">
-        <f>LEFT(A11,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C11" t="s">
@@ -3739,7 +4593,7 @@
         <v>84</v>
       </c>
       <c r="B12" t="str">
-        <f>LEFT(A12,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C12" t="s">
@@ -3751,7 +4605,7 @@
         <v>131</v>
       </c>
       <c r="B13" t="str">
-        <f>LEFT(A13,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C13" t="s">
@@ -3763,7 +4617,7 @@
         <v>136</v>
       </c>
       <c r="B14" t="str">
-        <f>LEFT(A14,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C14" t="s">
@@ -3775,7 +4629,7 @@
         <v>75</v>
       </c>
       <c r="B15" t="str">
-        <f>LEFT(A15,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C15" t="s">
@@ -3787,7 +4641,7 @@
         <v>79</v>
       </c>
       <c r="B16" t="str">
-        <f>LEFT(A16,1)</f>
+        <f t="shared" si="0"/>
         <v>L</v>
       </c>
       <c r="C16" t="s">
@@ -3799,7 +4653,7 @@
         <v>93</v>
       </c>
       <c r="B17" t="str">
-        <f>LEFT(A17,1)</f>
+        <f t="shared" si="0"/>
         <v>L</v>
       </c>
       <c r="C17" t="s">
@@ -3811,7 +4665,7 @@
         <v>71</v>
       </c>
       <c r="B18" t="str">
-        <f>LEFT(A18,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C18" t="s">
@@ -3823,7 +4677,7 @@
         <v>73</v>
       </c>
       <c r="B19" t="str">
-        <f>LEFT(A19,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C19" t="s">
@@ -3835,7 +4689,7 @@
         <v>85</v>
       </c>
       <c r="B20" t="str">
-        <f>LEFT(A20,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C20" t="s">
@@ -3847,7 +4701,7 @@
         <v>89</v>
       </c>
       <c r="B21" t="str">
-        <f>LEFT(A21,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C21" t="s">
@@ -3859,7 +4713,7 @@
         <v>90</v>
       </c>
       <c r="B22" t="str">
-        <f>LEFT(A22,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C22" t="s">
@@ -3871,7 +4725,7 @@
         <v>87</v>
       </c>
       <c r="B23" t="str">
-        <f>LEFT(A23,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C23" t="s">
@@ -3883,7 +4737,7 @@
         <v>88</v>
       </c>
       <c r="B24" t="str">
-        <f>LEFT(A24,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C24" t="s">
@@ -3895,7 +4749,7 @@
         <v>72</v>
       </c>
       <c r="B25" t="str">
-        <f>LEFT(A25,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C25" t="s">
@@ -3907,7 +4761,7 @@
         <v>81</v>
       </c>
       <c r="B26" t="str">
-        <f>LEFT(A26,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C26" t="s">
@@ -3919,7 +4773,7 @@
         <v>133</v>
       </c>
       <c r="B27" t="str">
-        <f>LEFT(A27,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C27" t="s">
@@ -3931,7 +4785,7 @@
         <v>94</v>
       </c>
       <c r="B28" t="str">
-        <f>LEFT(A28,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C28" t="s">
@@ -3943,7 +4797,7 @@
         <v>86</v>
       </c>
       <c r="B29" t="str">
-        <f>LEFT(A29,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C29" t="s">
@@ -3955,7 +4809,7 @@
         <v>135</v>
       </c>
       <c r="B30" t="str">
-        <f>LEFT(A30,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C30" t="s">
@@ -3967,7 +4821,7 @@
         <v>129</v>
       </c>
       <c r="B31" t="str">
-        <f>LEFT(A31,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C31" t="s">
@@ -3979,7 +4833,7 @@
         <v>80</v>
       </c>
       <c r="B32" t="str">
-        <f>LEFT(A32,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C32" t="s">
@@ -3991,7 +4845,7 @@
         <v>74</v>
       </c>
       <c r="B33" t="str">
-        <f>LEFT(A33,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C33" t="s">
@@ -4003,7 +4857,7 @@
         <v>134</v>
       </c>
       <c r="B34" t="str">
-        <f>LEFT(A34,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C34" t="s">
@@ -4015,7 +4869,7 @@
         <v>130</v>
       </c>
       <c r="B35" t="str">
-        <f>LEFT(A35,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C35" t="s">
@@ -4027,7 +4881,7 @@
         <v>66</v>
       </c>
       <c r="B36" t="str">
-        <f>LEFT(A36,1)</f>
+        <f t="shared" si="0"/>
         <v>U</v>
       </c>
       <c r="C36" t="s">
@@ -4039,7 +4893,7 @@
         <v>69</v>
       </c>
       <c r="B37" t="str">
-        <f>LEFT(A37,1)</f>
+        <f t="shared" si="0"/>
         <v>U</v>
       </c>
       <c r="C37" t="s">
@@ -4051,7 +4905,7 @@
         <v>78</v>
       </c>
       <c r="B38" t="str">
-        <f>LEFT(A38,1)</f>
+        <f t="shared" si="0"/>
         <v>U</v>
       </c>
       <c r="C38" t="s">
@@ -4063,7 +4917,7 @@
         <v>54</v>
       </c>
       <c r="B39" t="str">
-        <f>LEFT(A39,1)</f>
+        <f t="shared" si="0"/>
         <v>U</v>
       </c>
       <c r="C39" t="s">
@@ -4075,7 +4929,7 @@
         <v>92</v>
       </c>
       <c r="B40" t="str">
-        <f>LEFT(A40,1)</f>
+        <f t="shared" si="0"/>
         <v>U</v>
       </c>
       <c r="C40" t="s">
@@ -4403,7 +5257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -4422,7 +5276,7 @@
         <v>82</v>
       </c>
       <c r="B3" t="str">
-        <f>LEFT(A3,1)</f>
+        <f t="shared" ref="B3:B38" si="0">LEFT(A3,1)</f>
         <v>C</v>
       </c>
       <c r="C3" t="s">
@@ -4434,7 +5288,7 @@
         <v>142</v>
       </c>
       <c r="B4" t="str">
-        <f>LEFT(A4,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C4" t="s">
@@ -4446,7 +5300,7 @@
         <v>147</v>
       </c>
       <c r="B5" t="str">
-        <f>LEFT(A5,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C5" t="s">
@@ -4458,7 +5312,7 @@
         <v>70</v>
       </c>
       <c r="B6" t="str">
-        <f>LEFT(A6,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C6" t="s">
@@ -4470,7 +5324,7 @@
         <v>76</v>
       </c>
       <c r="B7" t="str">
-        <f>LEFT(A7,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C7" t="s">
@@ -4482,7 +5336,7 @@
         <v>83</v>
       </c>
       <c r="B8" t="str">
-        <f>LEFT(A8,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C8" t="s">
@@ -4494,7 +5348,7 @@
         <v>91</v>
       </c>
       <c r="B9" t="str">
-        <f>LEFT(A9,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C9" t="s">
@@ -4506,7 +5360,7 @@
         <v>77</v>
       </c>
       <c r="B10" t="str">
-        <f>LEFT(A10,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C10" t="s">
@@ -4518,7 +5372,7 @@
         <v>84</v>
       </c>
       <c r="B11" t="str">
-        <f>LEFT(A11,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C11" t="s">
@@ -4530,7 +5384,7 @@
         <v>141</v>
       </c>
       <c r="B12" t="str">
-        <f>LEFT(A12,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C12" t="s">
@@ -4542,7 +5396,7 @@
         <v>146</v>
       </c>
       <c r="B13" t="str">
-        <f>LEFT(A13,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C13" t="s">
@@ -4554,7 +5408,7 @@
         <v>75</v>
       </c>
       <c r="B14" t="str">
-        <f>LEFT(A14,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C14" t="s">
@@ -4566,7 +5420,7 @@
         <v>79</v>
       </c>
       <c r="B15" t="str">
-        <f>LEFT(A15,1)</f>
+        <f t="shared" si="0"/>
         <v>L</v>
       </c>
       <c r="C15" t="s">
@@ -4578,7 +5432,7 @@
         <v>93</v>
       </c>
       <c r="B16" t="str">
-        <f>LEFT(A16,1)</f>
+        <f t="shared" si="0"/>
         <v>L</v>
       </c>
       <c r="C16" t="s">
@@ -4590,7 +5444,7 @@
         <v>71</v>
       </c>
       <c r="B17" t="str">
-        <f>LEFT(A17,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C17" t="s">
@@ -4602,7 +5456,7 @@
         <v>73</v>
       </c>
       <c r="B18" t="str">
-        <f>LEFT(A18,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C18" t="s">
@@ -4614,7 +5468,7 @@
         <v>85</v>
       </c>
       <c r="B19" t="str">
-        <f>LEFT(A19,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C19" t="s">
@@ -4626,7 +5480,7 @@
         <v>89</v>
       </c>
       <c r="B20" t="str">
-        <f>LEFT(A20,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C20" t="s">
@@ -4638,7 +5492,7 @@
         <v>90</v>
       </c>
       <c r="B21" t="str">
-        <f>LEFT(A21,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C21" t="s">
@@ -4650,7 +5504,7 @@
         <v>87</v>
       </c>
       <c r="B22" t="str">
-        <f>LEFT(A22,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C22" t="s">
@@ -4662,7 +5516,7 @@
         <v>88</v>
       </c>
       <c r="B23" t="str">
-        <f>LEFT(A23,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C23" t="s">
@@ -4674,7 +5528,7 @@
         <v>72</v>
       </c>
       <c r="B24" t="str">
-        <f>LEFT(A24,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C24" t="s">
@@ -4686,7 +5540,7 @@
         <v>81</v>
       </c>
       <c r="B25" t="str">
-        <f>LEFT(A25,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C25" t="s">
@@ -4698,7 +5552,7 @@
         <v>143</v>
       </c>
       <c r="B26" t="str">
-        <f>LEFT(A26,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C26" t="s">
@@ -4710,7 +5564,7 @@
         <v>94</v>
       </c>
       <c r="B27" t="str">
-        <f>LEFT(A27,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C27" t="s">
@@ -4722,7 +5576,7 @@
         <v>86</v>
       </c>
       <c r="B28" t="str">
-        <f>LEFT(A28,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C28" t="s">
@@ -4734,7 +5588,7 @@
         <v>145</v>
       </c>
       <c r="B29" t="str">
-        <f>LEFT(A29,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C29" t="s">
@@ -4746,7 +5600,7 @@
         <v>139</v>
       </c>
       <c r="B30" t="str">
-        <f>LEFT(A30,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C30" t="s">
@@ -4758,7 +5612,7 @@
         <v>80</v>
       </c>
       <c r="B31" t="str">
-        <f>LEFT(A31,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C31" t="s">
@@ -4770,7 +5624,7 @@
         <v>74</v>
       </c>
       <c r="B32" t="str">
-        <f>LEFT(A32,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C32" t="s">
@@ -4782,7 +5636,7 @@
         <v>144</v>
       </c>
       <c r="B33" t="str">
-        <f>LEFT(A33,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C33" t="s">
@@ -4794,7 +5648,7 @@
         <v>140</v>
       </c>
       <c r="B34" t="str">
-        <f>LEFT(A34,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C34" t="s">
@@ -4806,7 +5660,7 @@
         <v>69</v>
       </c>
       <c r="B35" t="str">
-        <f>LEFT(A35,1)</f>
+        <f t="shared" si="0"/>
         <v>U</v>
       </c>
       <c r="C35" t="s">
@@ -4818,7 +5672,7 @@
         <v>78</v>
       </c>
       <c r="B36" t="str">
-        <f>LEFT(A36,1)</f>
+        <f t="shared" si="0"/>
         <v>U</v>
       </c>
       <c r="C36" t="s">
@@ -4830,7 +5684,7 @@
         <v>56</v>
       </c>
       <c r="B37" t="str">
-        <f>LEFT(A37,1)</f>
+        <f t="shared" si="0"/>
         <v>U</v>
       </c>
       <c r="C37" t="s">
@@ -4842,7 +5696,7 @@
         <v>92</v>
       </c>
       <c r="B38" t="str">
-        <f>LEFT(A38,1)</f>
+        <f t="shared" si="0"/>
         <v>U</v>
       </c>
       <c r="C38" t="s">

--- a/eagle/inductor_test/assembly/InductorTesting.xlsx
+++ b/eagle/inductor_test/assembly/InductorTesting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="14385" activeTab="10"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="14385"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -923,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24:Y24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2065,8 +2065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2084,7 +2084,7 @@
         <v>82</v>
       </c>
       <c r="B3" t="str">
-        <f>LEFT(A3,1)</f>
+        <f t="shared" ref="B3:B40" si="0">LEFT(A3,1)</f>
         <v>C</v>
       </c>
       <c r="C3" t="s">
@@ -2096,7 +2096,7 @@
         <v>61</v>
       </c>
       <c r="B4" t="str">
-        <f>LEFT(A4,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C4" t="s">
@@ -2108,7 +2108,7 @@
         <v>67</v>
       </c>
       <c r="B5" t="str">
-        <f>LEFT(A5,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C5" t="s">
@@ -2120,7 +2120,7 @@
         <v>68</v>
       </c>
       <c r="B6" t="str">
-        <f>LEFT(A6,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C6" t="s">
@@ -2132,7 +2132,7 @@
         <v>70</v>
       </c>
       <c r="B7" t="str">
-        <f>LEFT(A7,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C7" t="s">
@@ -2144,7 +2144,7 @@
         <v>76</v>
       </c>
       <c r="B8" t="str">
-        <f>LEFT(A8,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C8" t="s">
@@ -2156,7 +2156,7 @@
         <v>83</v>
       </c>
       <c r="B9" t="str">
-        <f>LEFT(A9,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C9" t="s">
@@ -2168,7 +2168,7 @@
         <v>91</v>
       </c>
       <c r="B10" t="str">
-        <f>LEFT(A10,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C10" t="s">
@@ -2180,7 +2180,7 @@
         <v>77</v>
       </c>
       <c r="B11" t="str">
-        <f>LEFT(A11,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C11" t="s">
@@ -2192,7 +2192,7 @@
         <v>84</v>
       </c>
       <c r="B12" t="str">
-        <f>LEFT(A12,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C12" t="s">
@@ -2204,7 +2204,7 @@
         <v>60</v>
       </c>
       <c r="B13" t="str">
-        <f>LEFT(A13,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C13" t="s">
@@ -2216,7 +2216,7 @@
         <v>65</v>
       </c>
       <c r="B14" t="str">
-        <f>LEFT(A14,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C14" t="s">
@@ -2228,7 +2228,7 @@
         <v>75</v>
       </c>
       <c r="B15" t="str">
-        <f>LEFT(A15,1)</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="C15" t="s">
@@ -2240,7 +2240,7 @@
         <v>79</v>
       </c>
       <c r="B16" t="str">
-        <f>LEFT(A16,1)</f>
+        <f t="shared" si="0"/>
         <v>L</v>
       </c>
       <c r="C16" t="s">
@@ -2252,7 +2252,7 @@
         <v>93</v>
       </c>
       <c r="B17" t="str">
-        <f>LEFT(A17,1)</f>
+        <f t="shared" si="0"/>
         <v>L</v>
       </c>
       <c r="C17" t="s">
@@ -2264,7 +2264,7 @@
         <v>71</v>
       </c>
       <c r="B18" t="str">
-        <f>LEFT(A18,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C18" t="s">
@@ -2276,7 +2276,7 @@
         <v>73</v>
       </c>
       <c r="B19" t="str">
-        <f>LEFT(A19,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C19" t="s">
@@ -2288,7 +2288,7 @@
         <v>85</v>
       </c>
       <c r="B20" t="str">
-        <f>LEFT(A20,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C20" t="s">
@@ -2300,7 +2300,7 @@
         <v>89</v>
       </c>
       <c r="B21" t="str">
-        <f>LEFT(A21,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C21" t="s">
@@ -2312,7 +2312,7 @@
         <v>90</v>
       </c>
       <c r="B22" t="str">
-        <f>LEFT(A22,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C22" t="s">
@@ -2324,7 +2324,7 @@
         <v>87</v>
       </c>
       <c r="B23" t="str">
-        <f>LEFT(A23,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C23" t="s">
@@ -2336,7 +2336,7 @@
         <v>88</v>
       </c>
       <c r="B24" t="str">
-        <f>LEFT(A24,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C24" t="s">
@@ -2348,7 +2348,7 @@
         <v>72</v>
       </c>
       <c r="B25" t="str">
-        <f>LEFT(A25,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C25" t="s">
@@ -2360,7 +2360,7 @@
         <v>81</v>
       </c>
       <c r="B26" t="str">
-        <f>LEFT(A26,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C26" t="s">
@@ -2372,7 +2372,7 @@
         <v>62</v>
       </c>
       <c r="B27" t="str">
-        <f>LEFT(A27,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C27" t="s">
@@ -2384,7 +2384,7 @@
         <v>94</v>
       </c>
       <c r="B28" t="str">
-        <f>LEFT(A28,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C28" t="s">
@@ -2396,7 +2396,7 @@
         <v>86</v>
       </c>
       <c r="B29" t="str">
-        <f>LEFT(A29,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C29" t="s">
@@ -2408,7 +2408,7 @@
         <v>64</v>
       </c>
       <c r="B30" t="str">
-        <f>LEFT(A30,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C30" t="s">
@@ -2420,7 +2420,7 @@
         <v>58</v>
       </c>
       <c r="B31" t="str">
-        <f>LEFT(A31,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C31" t="s">
@@ -2432,7 +2432,7 @@
         <v>80</v>
       </c>
       <c r="B32" t="str">
-        <f>LEFT(A32,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C32" t="s">
@@ -2444,7 +2444,7 @@
         <v>74</v>
       </c>
       <c r="B33" t="str">
-        <f>LEFT(A33,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C33" t="s">
@@ -2456,7 +2456,7 @@
         <v>63</v>
       </c>
       <c r="B34" t="str">
-        <f>LEFT(A34,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C34" t="s">
@@ -2468,7 +2468,7 @@
         <v>59</v>
       </c>
       <c r="B35" t="str">
-        <f>LEFT(A35,1)</f>
+        <f t="shared" si="0"/>
         <v>R</v>
       </c>
       <c r="C35" t="s">
@@ -2480,7 +2480,7 @@
         <v>48</v>
       </c>
       <c r="B36" t="str">
-        <f>LEFT(A36,1)</f>
+        <f t="shared" si="0"/>
         <v>U</v>
       </c>
       <c r="C36" t="s">
@@ -2492,7 +2492,7 @@
         <v>66</v>
       </c>
       <c r="B37" t="str">
-        <f>LEFT(A37,1)</f>
+        <f t="shared" si="0"/>
         <v>U</v>
       </c>
       <c r="C37" t="s">
@@ -2504,7 +2504,7 @@
         <v>69</v>
       </c>
       <c r="B38" t="str">
-        <f>LEFT(A38,1)</f>
+        <f t="shared" si="0"/>
         <v>U</v>
       </c>
       <c r="C38" t="s">
@@ -2516,7 +2516,7 @@
         <v>78</v>
       </c>
       <c r="B39" t="str">
-        <f>LEFT(A39,1)</f>
+        <f t="shared" si="0"/>
         <v>U</v>
       </c>
       <c r="C39" t="s">
@@ -2528,7 +2528,7 @@
         <v>92</v>
       </c>
       <c r="B40" t="str">
-        <f>LEFT(A40,1)</f>
+        <f t="shared" si="0"/>
         <v>U</v>
       </c>
       <c r="C40" t="s">
